--- a/testData/load_details.xlsx
+++ b/testData/load_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f4ee726ca6215fd/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{279886E3-7B4B-4BC3-A469-6ABE7589ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A7165E0-F769-47C2-8855-CDEF2C05A148}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{279886E3-7B4B-4BC3-A469-6ABE7589ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35781CA-26E7-40C9-B047-54FD3A500CDC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3AB5BF0-09AC-41DE-AF31-744D4249B2DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>ordernum</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>08/21/2023</t>
-  </si>
-  <si>
-    <t>Before</t>
   </si>
   <si>
     <t>madhu1</t>
@@ -194,19 +191,13 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="hh:mm\ A/P"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -235,14 +226,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,6 +260,22 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person13.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -297,6 +301,10 @@
 </file>
 
 <file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -599,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7486B9CB-94FA-4511-BEF9-0259C02C24D1}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,13 +760,13 @@
       <c r="Y2" s="3">
         <v>0.5</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>51</v>
+      <c r="AB2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>379972</v>
+        <v>379982</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
@@ -797,32 +805,32 @@
         <v>47</v>
       </c>
       <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" t="s">
         <v>48</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="S3" t="s">
-        <v>49</v>
       </c>
       <c r="T3" t="s">
         <v>45</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0.66666666666666663</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Z3" s="3"/>
       <c r="AB3" t="s">
         <v>35</v>
       </c>
